--- a/eureca_dhcs/test/output_test_hydro_2/DataExercise.xlsx
+++ b/eureca_dhcs/test/output_test_hydro_2/DataExercise.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr15640\Desktop\eureca-dhcs\eureca_dhcs\test\output_test_hydro_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CDA88-808F-4691-8C29-B27502A92CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF406C4-784B-4993-9FEF-F1F09D61941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="10992" xr2:uid="{9D269224-F2D3-4FDB-B1F5-E9639540CABD}"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="10992" xr2:uid="{9D269224-F2D3-4FDB-B1F5-E9639540CABD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>https://www.researchgate.net/publication/319700253_Spreadsheet-Based_Pipe_Networks_Analysis_for_Teaching_and_Learning_Purpose</t>
+  </si>
+  <si>
+    <t>Sim2</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>m3/h</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>Sim 1</t>
   </si>
 </sst>
 </file>
@@ -93,20 +109,1351 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$9:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kg/s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sim 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$A$11:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$11:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>60.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C2E-4B13-B616-93D13E554BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$9:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kg/s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sim2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$A$11:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$11:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>60.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C2E-4B13-B616-93D13E554BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$9:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>kg/s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exercise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$A$11:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$11:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>55.74166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.027777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.469444444444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.341666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.68611111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.547222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.972222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.958333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.072222222222223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.302777777777778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.713888888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.558333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.9666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.6888888888888882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C2E-4B13-B616-93D13E554BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="500672511"/>
+        <c:axId val="434023727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="500672511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434023727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434023727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500672511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4CDFD259-D39A-466C-9CC7-73C01E3D134D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10824882" cy="7855324"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521AF061-1376-4125-92E1-108E04980768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>181565</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>479788</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -129,8 +1476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="405493"/>
-          <a:ext cx="5973536" cy="5103268"/>
+          <a:off x="5494020" y="773430"/>
+          <a:ext cx="5958568" cy="5010740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -142,15 +1489,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101871</xdr:rowOff>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38970</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150071</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>479025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -173,14 +1520,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="463821"/>
-          <a:ext cx="5039595" cy="2038925"/>
+          <a:off x="5812155" y="5992131"/>
+          <a:ext cx="5026260" cy="2027495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18A8144-C5D7-44B4-BA4F-C9004765FEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="474345"/>
+          <a:ext cx="3139440" cy="455295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Sim 1 sim 2 difference due to properties depending on temperature</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -483,17 +1900,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881AF79C-D5CE-49F8-9127-D0B2959B9D45}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>60.94</v>
+      </c>
+      <c r="C11">
+        <v>60.88</v>
+      </c>
+      <c r="D11">
+        <f>E11/3.6</f>
+        <v>55.74166666666666</v>
+      </c>
+      <c r="E11">
+        <v>200.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>48.52</v>
+      </c>
+      <c r="C12">
+        <v>48.55</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D29" si="0">E12/3.6</f>
+        <v>40.027777777777779</v>
+      </c>
+      <c r="E12">
+        <v>144.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>18.57</v>
+      </c>
+      <c r="C13">
+        <v>18.62</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>16.469444444444445</v>
+      </c>
+      <c r="E13">
+        <v>59.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>-9.01</v>
+      </c>
+      <c r="C14">
+        <v>-8.99</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-10.341666666666665</v>
+      </c>
+      <c r="E14">
+        <v>-37.229999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>12.83</v>
+      </c>
+      <c r="C15">
+        <v>12.83</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8.68611111111111</v>
+      </c>
+      <c r="E15">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>-5.99</v>
+      </c>
+      <c r="C16">
+        <v>-5.99</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-12.547222222222222</v>
+      </c>
+      <c r="E16">
+        <v>-45.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>14.972222222222221</v>
+      </c>
+      <c r="E17">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C18">
+        <v>2.09</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9.6722222222222225</v>
+      </c>
+      <c r="E18">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>42.76</v>
+      </c>
+      <c r="C19">
+        <v>42.82</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>47.958333333333336</v>
+      </c>
+      <c r="E19">
+        <v>172.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2.8</v>
+      </c>
+      <c r="C20">
+        <v>2.83</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.38611111111111107</v>
+      </c>
+      <c r="E20">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>17.28</v>
+      </c>
+      <c r="C21">
+        <v>17.25</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="E21">
+        <v>38.880000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>2.96</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7.4166666666666661</v>
+      </c>
+      <c r="E22">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>13.25</v>
+      </c>
+      <c r="C23">
+        <v>13.28</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>16.072222222222223</v>
+      </c>
+      <c r="E23">
+        <v>57.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="C24">
+        <v>-2.09</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>5.302777777777778</v>
+      </c>
+      <c r="E24">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>12.42</v>
+      </c>
+      <c r="C25">
+        <v>12.33</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>15.713888888888889</v>
+      </c>
+      <c r="E25">
+        <v>56.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>-5.99</v>
+      </c>
+      <c r="C26">
+        <v>-5.99</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.4250000000000003</v>
+      </c>
+      <c r="E26">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>29.95</v>
+      </c>
+      <c r="C27">
+        <v>29.94</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>23.558333333333334</v>
+      </c>
+      <c r="E27">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>-6.38</v>
+      </c>
+      <c r="C28">
+        <v>-6.38</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-3.9666666666666663</v>
+      </c>
+      <c r="E28">
+        <v>-14.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>-3.91</v>
+      </c>
+      <c r="C29">
+        <v>-3.89</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-4.6888888888888882</v>
+      </c>
+      <c r="E29">
+        <v>-16.88</v>
       </c>
     </row>
   </sheetData>

--- a/eureca_dhcs/test/output_test_hydro_2/DataExercise.xlsx
+++ b/eureca_dhcs/test/output_test_hydro_2/DataExercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr15640\Desktop\eureca-dhcs\eureca_dhcs\test\output_test_hydro_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF406C4-784B-4993-9FEF-F1F09D61941C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE244D43-4526-467A-91A7-14A92E4CBE37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="10992" xr2:uid="{9D269224-F2D3-4FDB-B1F5-E9639540CABD}"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22104" windowHeight="10992" xr2:uid="{9D269224-F2D3-4FDB-B1F5-E9639540CABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico1" sheetId="2" r:id="rId1"/>
@@ -260,61 +260,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>60.94</c:v>
+                  <c:v>60.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.52</c:v>
+                  <c:v>47.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.57</c:v>
+                  <c:v>18.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.01</c:v>
+                  <c:v>-8.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.83</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.99</c:v>
+                  <c:v>-6.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.76</c:v>
+                  <c:v>43.41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8</c:v>
+                  <c:v>3.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.28</c:v>
+                  <c:v>18.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.96</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.25</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.0499999999999998</c:v>
+                  <c:v>-2.29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.42</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.99</c:v>
+                  <c:v>-6.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.95</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.38</c:v>
+                  <c:v>-6.66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.91</c:v>
+                  <c:v>-4.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,61 +425,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>60.88</c:v>
+                  <c:v>60.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.55</c:v>
+                  <c:v>47.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.62</c:v>
+                  <c:v>18.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.99</c:v>
+                  <c:v>-8.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.83</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.99</c:v>
+                  <c:v>-6.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.09</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.82</c:v>
+                  <c:v>43.41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.83</c:v>
+                  <c:v>3.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.25</c:v>
+                  <c:v>18.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.28</c:v>
+                  <c:v>13.77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.09</c:v>
+                  <c:v>-2.29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.33</c:v>
+                  <c:v>13.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.99</c:v>
+                  <c:v>-6.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.94</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.38</c:v>
+                  <c:v>-6.66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.89</c:v>
+                  <c:v>-4.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,7 +1411,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10824882" cy="7855324"/>
+    <xdr:ext cx="8654143" cy="6281057"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
@@ -1903,7 +1903,7 @@
   <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>60.94</v>
+        <v>60.29</v>
       </c>
       <c r="C11">
-        <v>60.88</v>
+        <v>60.29</v>
       </c>
       <c r="D11">
         <f>E11/3.6</f>
@@ -1964,10 +1964,10 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>48.52</v>
+        <v>47.16</v>
       </c>
       <c r="C12">
-        <v>48.55</v>
+        <v>47.16</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D29" si="0">E12/3.6</f>
@@ -1982,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>18.57</v>
+        <v>18.52</v>
       </c>
       <c r="C13">
-        <v>18.62</v>
+        <v>18.52</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -2000,10 +2000,10 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>-9.01</v>
+        <v>-8.94</v>
       </c>
       <c r="C14">
-        <v>-8.99</v>
+        <v>-8.94</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2018,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>12.83</v>
+        <v>12.39</v>
       </c>
       <c r="C15">
-        <v>12.83</v>
+        <v>12.39</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -2036,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>-5.99</v>
+        <v>-6.15</v>
       </c>
       <c r="C16">
-        <v>-5.99</v>
+        <v>-6.15</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -2054,10 +2054,10 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -2072,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>2.0499999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="C18">
-        <v>2.09</v>
+        <v>2.29</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2090,10 +2090,10 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>42.76</v>
+        <v>43.41</v>
       </c>
       <c r="C19">
-        <v>42.82</v>
+        <v>43.41</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -2108,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>2.8</v>
+        <v>3.22</v>
       </c>
       <c r="C20">
-        <v>2.83</v>
+        <v>3.22</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -2126,10 +2126,10 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>17.28</v>
+        <v>18.64</v>
       </c>
       <c r="C21">
-        <v>17.25</v>
+        <v>18.64</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -2144,10 +2144,10 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -2162,10 +2162,10 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>13.25</v>
+        <v>13.77</v>
       </c>
       <c r="C23">
-        <v>13.28</v>
+        <v>13.77</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -2180,10 +2180,10 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>-2.0499999999999998</v>
+        <v>-2.29</v>
       </c>
       <c r="C24">
-        <v>-2.09</v>
+        <v>-2.29</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -2198,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="B25">
-        <v>12.42</v>
+        <v>13.13</v>
       </c>
       <c r="C25">
-        <v>12.33</v>
+        <v>13.13</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -2216,10 +2216,10 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>-5.99</v>
+        <v>-6.15</v>
       </c>
       <c r="C26">
-        <v>-5.99</v>
+        <v>-6.15</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -2234,10 +2234,10 @@
         <v>17</v>
       </c>
       <c r="B27">
-        <v>29.95</v>
+        <v>28.64</v>
       </c>
       <c r="C27">
-        <v>29.94</v>
+        <v>28.64</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -2252,10 +2252,10 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>-6.38</v>
+        <v>-6.66</v>
       </c>
       <c r="C28">
-        <v>-6.38</v>
+        <v>-6.66</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -2270,10 +2270,10 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>-3.91</v>
+        <v>-4.04</v>
       </c>
       <c r="C29">
-        <v>-3.89</v>
+        <v>-4.04</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
